--- a/naming_template.xlsx
+++ b/naming_template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paul\Documents\NetBeansProjects\heps-db-naming\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NetBeansProjects\heps-db-naming\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="24240" windowHeight="12675" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="24240" windowHeight="12675" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="system" sheetId="1" r:id="rId1"/>
@@ -89,18 +89,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -476,13 +476,13 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.375" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -490,7 +490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -498,7 +498,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -514,19 +514,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="20.125" customWidth="1"/>
+    <col min="2" max="2" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -534,20 +534,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -564,13 +556,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -578,7 +570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -586,7 +578,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -604,16 +596,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -621,7 +613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -629,7 +621,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>17</v>
       </c>
